--- a/data/trans_media/P33_1_2023-Habitat-trans_media.xlsx
+++ b/data/trans_media/P33_1_2023-Habitat-trans_media.xlsx
@@ -497,7 +497,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según las horas que duerme habitualmente al dia y entre semana</t>
+          <t>Población según las horas que duerme habitualmente al día y entre semana</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,93; 7,41</t>
+          <t>6,94; 7,42</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,47; 6,86</t>
+          <t>6,48; 6,86</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,76; 7,06</t>
+          <t>6,75; 7,06</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,05; 7,24</t>
+          <t>7,06; 7,25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,88; 7,05</t>
+          <t>6,89; 7,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,98; 7,12</t>
+          <t>6,99; 7,12</t>
         </is>
       </c>
     </row>
@@ -679,7 +679,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,18; 7,38</t>
+          <t>7,18; 7,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,01; 7,21</t>
+          <t>7,01; 7,2</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,56; 7,08</t>
+          <t>6,57; 7,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,75; 7,1</t>
+          <t>6,77; 7,1</t>
         </is>
       </c>
     </row>
@@ -779,12 +779,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,93; 7,09</t>
+          <t>6,94; 7,09</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,91; 7,05</t>
+          <t>6,91; 7,04</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -834,12 +834,12 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,87; 7,03</t>
+          <t>6,88; 7,03</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,0; 7,09</t>
+          <t>6,99; 7,09</t>
         </is>
       </c>
     </row>

--- a/data/trans_media/P33_1_2023-Habitat-trans_media.xlsx
+++ b/data/trans_media/P33_1_2023-Habitat-trans_media.xlsx
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -596,7 +596,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -696,7 +696,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
